--- a/resources/assets/excel/Teams.xlsx
+++ b/resources/assets/excel/Teams.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -32,40 +35,97 @@
     <t>photo</t>
   </si>
   <si>
-    <t>Команда 1</t>
-  </si>
-  <si>
-    <t>Описание команды 1.</t>
-  </si>
-  <si>
-    <t>team.jpg</t>
-  </si>
-  <si>
-    <t>photo.jpg</t>
-  </si>
-  <si>
-    <t>Команда 2</t>
-  </si>
-  <si>
-    <t>Описание команды 2.</t>
-  </si>
-  <si>
-    <t>Команда 3</t>
-  </si>
-  <si>
-    <t>Описание команды 3.</t>
-  </si>
-  <si>
-    <t>Команда 4</t>
-  </si>
-  <si>
-    <t>Описание команды 4.</t>
-  </si>
-  <si>
-    <t>Команда 5</t>
-  </si>
-  <si>
-    <t>Описание команды 5.</t>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Планета</t>
+  </si>
+  <si>
+    <t>ПЛН</t>
+  </si>
+  <si>
+    <t>Длинное описание команды на 17 страниц.</t>
+  </si>
+  <si>
+    <t>images/planeta.jpg</t>
+  </si>
+  <si>
+    <t>images/photo.jpg</t>
+  </si>
+  <si>
+    <t>Набережные Челны</t>
+  </si>
+  <si>
+    <t>Гренада</t>
+  </si>
+  <si>
+    <t>ГР+</t>
+  </si>
+  <si>
+    <t>images/grenada.jpg</t>
+  </si>
+  <si>
+    <t>Белые медведи</t>
+  </si>
+  <si>
+    <t>БМ</t>
+  </si>
+  <si>
+    <t>images/bm.jpg</t>
+  </si>
+  <si>
+    <t>Камаз</t>
+  </si>
+  <si>
+    <t>КМЗ</t>
+  </si>
+  <si>
+    <t>images/kamaz.jpg</t>
+  </si>
+  <si>
+    <t>Гренада+</t>
+  </si>
+  <si>
+    <t>images/grenadaplus.jpg</t>
+  </si>
+  <si>
+    <t>Ирбис</t>
+  </si>
+  <si>
+    <t>ИРБ</t>
+  </si>
+  <si>
+    <t>images/irbis.jpg</t>
+  </si>
+  <si>
+    <t>Юность</t>
+  </si>
+  <si>
+    <t>ЮН</t>
+  </si>
+  <si>
+    <t>images/unost.jpg</t>
+  </si>
+  <si>
+    <t>Нефтехимик</t>
+  </si>
+  <si>
+    <t>НФХ</t>
+  </si>
+  <si>
+    <t>images/nefteximik.jpg</t>
+  </si>
+  <si>
+    <t>Нижнекамск</t>
+  </si>
+  <si>
+    <t>Елабуга</t>
+  </si>
+  <si>
+    <t>ЕЛБ</t>
+  </si>
+  <si>
+    <t>images/elabyga.jpg</t>
   </si>
 </sst>
 </file>
@@ -141,9 +201,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -163,19 +227,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7732793522267"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0728744939271"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.4412955465587"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.4736842105263"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -194,90 +260,218 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
